--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema3c</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Sema3c</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.227933</v>
+        <v>42.071953</v>
       </c>
       <c r="H2">
-        <v>0.683799</v>
+        <v>126.215859</v>
       </c>
       <c r="I2">
-        <v>0.005274728560320285</v>
+        <v>0.978774012990499</v>
       </c>
       <c r="J2">
-        <v>0.005274728560320286</v>
+        <v>0.978774012990499</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N2">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q2">
-        <v>12.06000424565433</v>
+        <v>5186.657390057811</v>
       </c>
       <c r="R2">
-        <v>108.540038210889</v>
+        <v>46679.91651052029</v>
       </c>
       <c r="S2">
-        <v>0.00219503367965828</v>
+        <v>0.6109090492400876</v>
       </c>
       <c r="T2">
-        <v>0.00219503367965828</v>
+        <v>0.6109090492400875</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.227933</v>
+        <v>42.071953</v>
       </c>
       <c r="H3">
-        <v>0.683799</v>
+        <v>126.215859</v>
       </c>
       <c r="I3">
-        <v>0.005274728560320285</v>
+        <v>0.978774012990499</v>
       </c>
       <c r="J3">
-        <v>0.005274728560320286</v>
+        <v>0.978774012990499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q3">
-        <v>10.77212687609167</v>
+        <v>1988.322952977258</v>
       </c>
       <c r="R3">
-        <v>96.949141884825</v>
+        <v>17894.90657679532</v>
       </c>
       <c r="S3">
-        <v>0.001960627941162921</v>
+        <v>0.2341940856000981</v>
       </c>
       <c r="T3">
-        <v>0.001960627941162921</v>
+        <v>0.2341940856000981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.227933</v>
+        <v>42.071953</v>
       </c>
       <c r="H4">
-        <v>0.683799</v>
+        <v>126.215859</v>
       </c>
       <c r="I4">
-        <v>0.005274728560320285</v>
+        <v>0.978774012990499</v>
       </c>
       <c r="J4">
-        <v>0.005274728560320286</v>
+        <v>0.978774012990499</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q4">
-        <v>6.148403173308668</v>
+        <v>1134.874411921455</v>
       </c>
       <c r="R4">
-        <v>55.335628559778</v>
+        <v>10213.8697072931</v>
       </c>
       <c r="S4">
-        <v>0.001119066939499085</v>
+        <v>0.1336708781503134</v>
       </c>
       <c r="T4">
-        <v>0.001119066939499085</v>
+        <v>0.1336708781503133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.071953</v>
+        <v>0.912385</v>
       </c>
       <c r="H5">
-        <v>126.215859</v>
+        <v>2.737155</v>
       </c>
       <c r="I5">
-        <v>0.9736112457500787</v>
+        <v>0.021225987009501</v>
       </c>
       <c r="J5">
-        <v>0.9736112457500787</v>
+        <v>0.021225987009501</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N5">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q5">
-        <v>2226.039809079728</v>
+        <v>112.4794088552983</v>
       </c>
       <c r="R5">
-        <v>20034.35828171755</v>
+        <v>1012.314679697685</v>
       </c>
       <c r="S5">
-        <v>0.4051600856567509</v>
+        <v>0.01324835699666515</v>
       </c>
       <c r="T5">
-        <v>0.4051600856567509</v>
+        <v>0.01324835699666515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.071953</v>
+        <v>0.912385</v>
       </c>
       <c r="H6">
-        <v>126.215859</v>
+        <v>2.737155</v>
       </c>
       <c r="I6">
-        <v>0.9736112457500787</v>
+        <v>0.021225987009501</v>
       </c>
       <c r="J6">
-        <v>0.9736112457500787</v>
+        <v>0.021225987009501</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q6">
-        <v>1988.322952977258</v>
+        <v>43.11936832245833</v>
       </c>
       <c r="R6">
-        <v>17894.90657679532</v>
+        <v>388.074314902125</v>
       </c>
       <c r="S6">
-        <v>0.3618933923174493</v>
+        <v>0.005078803230034163</v>
       </c>
       <c r="T6">
-        <v>0.3618933923174493</v>
+        <v>0.005078803230034163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.071953</v>
+        <v>0.912385</v>
       </c>
       <c r="H7">
-        <v>126.215859</v>
+        <v>2.737155</v>
       </c>
       <c r="I7">
-        <v>0.9736112457500787</v>
+        <v>0.021225987009501</v>
       </c>
       <c r="J7">
-        <v>0.9736112457500787</v>
+        <v>0.021225987009501</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q7">
-        <v>1134.874411921455</v>
+        <v>24.61122711182334</v>
       </c>
       <c r="R7">
-        <v>10213.8697072931</v>
+        <v>221.50104400641</v>
       </c>
       <c r="S7">
-        <v>0.2065577677758786</v>
+        <v>0.002898826782801684</v>
       </c>
       <c r="T7">
-        <v>0.2065577677758786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.912385</v>
-      </c>
-      <c r="H8">
-        <v>2.737155</v>
-      </c>
-      <c r="I8">
-        <v>0.02111402568960099</v>
-      </c>
-      <c r="J8">
-        <v>0.021114025689601</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>52.91030366666666</v>
-      </c>
-      <c r="N8">
-        <v>158.730911</v>
-      </c>
-      <c r="O8">
-        <v>0.4161415425564564</v>
-      </c>
-      <c r="P8">
-        <v>0.4161415425564564</v>
-      </c>
-      <c r="Q8">
-        <v>48.27456741091166</v>
-      </c>
-      <c r="R8">
-        <v>434.471106698205</v>
-      </c>
-      <c r="S8">
-        <v>0.008786423220047204</v>
-      </c>
-      <c r="T8">
-        <v>0.008786423220047206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.912385</v>
-      </c>
-      <c r="H9">
-        <v>2.737155</v>
-      </c>
-      <c r="I9">
-        <v>0.02111402568960099</v>
-      </c>
-      <c r="J9">
-        <v>0.021114025689601</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>47.26005833333333</v>
-      </c>
-      <c r="N9">
-        <v>141.780175</v>
-      </c>
-      <c r="O9">
-        <v>0.3717021489810786</v>
-      </c>
-      <c r="P9">
-        <v>0.3717021489810786</v>
-      </c>
-      <c r="Q9">
-        <v>43.11936832245833</v>
-      </c>
-      <c r="R9">
-        <v>388.074314902125</v>
-      </c>
-      <c r="S9">
-        <v>0.007848128722466388</v>
-      </c>
-      <c r="T9">
-        <v>0.00784812872246639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.912385</v>
-      </c>
-      <c r="H10">
-        <v>2.737155</v>
-      </c>
-      <c r="I10">
-        <v>0.02111402568960099</v>
-      </c>
-      <c r="J10">
-        <v>0.021114025689601</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>26.97460733333333</v>
-      </c>
-      <c r="N10">
-        <v>80.923822</v>
-      </c>
-      <c r="O10">
-        <v>0.2121563084624651</v>
-      </c>
-      <c r="P10">
-        <v>0.2121563084624651</v>
-      </c>
-      <c r="Q10">
-        <v>24.61122711182334</v>
-      </c>
-      <c r="R10">
-        <v>221.50104400641</v>
-      </c>
-      <c r="S10">
-        <v>0.004479473747087401</v>
-      </c>
-      <c r="T10">
-        <v>0.004479473747087402</v>
+        <v>0.002898826782801683</v>
       </c>
     </row>
   </sheetData>
